--- a/data/hotels_by_city/Houston/Houston_shard_160.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_160.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107994-Reviews-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Crossland-Houston-Northwest.h104199.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,243 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r568541281-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107994</t>
+  </si>
+  <si>
+    <t>568541281</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Had a great experience</t>
+  </si>
+  <si>
+    <t>My stay here was peaceful, and the staff was great. Kenny FD was very helpful and kind. He made sure I was accommodated and comfortable. I stayed at the Northwest location, and I would recommend seeing him if u need a room. I had a great experience, and the rooms are very clean and affordable</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566957608-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566957608</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was well accomadating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good room, with a fair price. The only problem i had was office closes at 11pm. I needed more towels, but other than that i was helped with connecting my computer with the wifi log in. Kenny is very nice. I highly recommend this hotel/and staying another night.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566955244-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566955244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was very good, and I asked for a discount and. Kenny gave me better rate then I was quoted on the phone. The only problem with this experience. It was only only one night but, they gave me fresh towels and a extra pillow. Now that's very good customer service, thanks for making me feel like I'm at home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r549199274-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549199274</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Never got my room</t>
+  </si>
+  <si>
+    <t>I booked 2 nights at this hotel because of the simple fact of having the kitchenettes...plus I got a great rate. Once I arrived,I was told I could check in @ 2. I was still waiting in my car at 5 for someone to show up to work the front desk. They NEVER came and I had to transfer my reservation to another property. 24 hrs later, Kenny, a front desk agent at this hotel called to inform me that I wasn't going to be charged. No s#$t Sherlock.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r516854736-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516854736</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAY, GREAT STAFF!!!</t>
+  </si>
+  <si>
+    <t>I searched online for a GREAT deal as well as GREAT service. The Crossland Suites on Guhn Rd. off Highway 290 and West Tidwell on the Northwest side of Houston was the winner!! My room was CLEAN and the manager to the staff were at my beckoned call. As you know that kind of treatment isn't done anymore....anywhere. I highly recommend the hotel. Security was GREAT as well.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r515341183-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515341183</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>⭐️⭐️⭐️⭐️⭐️</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at Crossland E Studios ‼️ Management nice and friendly very helpful ‼️I recommend Crossland to anyone looking for a good deal peace and quiet in a nice location ‼️I never d any problems with other tenets awesome stay ‼️‼️</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r470990226-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470990226</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>The hotel was under renovation so it was a little messy. I appreciated them renovating the place. The staff was pleasant and very professional. The room was nice exceeded the star rating. I would stay there again and recommend them to friends.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r462445882-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462445882</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>The staff is great,they are friendly and have awesome customer service alot of restaurants nearby movies,activity for kids nearby also I give the hotel and staff five star serviceIt's also a nice community it's in</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r460268560-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460268560</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Great customer Service</t>
+  </si>
+  <si>
+    <t>I recently stayed at this location traveling with my wife for 3 nights, the front desk was friendly they explained and guide me about the restaurants in the area. The location is going thru remodeling and the rooms are small but very comfortable, 42'' flat TV, full refrigerator and microwave. If you looking for a place to stay we recommend this location</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r437953381-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437953381</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>This ones a No!!!!</t>
+  </si>
+  <si>
+    <t>First of all they are pet friendly which means there will be fleas, ticks, and other bugs. So the room was booked thru Expedia. The price was reasonable $53.65 but not worth it. The room was small. It had a kitchenette. No dishes or kitchen appliances or silverware. The restroom had about 6 nats flying in the shower. Totally disgusting!! Then in the room there was nats and about 4 mosquitos flying around. I immediately called the office. The young lady behind was very helpful and nice about the situation. She quickly switched rooms. The next room was examined for bugs .... There were bed bugs in the bed under the pillow. I immediately called the office again. The young lady came back to the room saw the very small bug. I asked for a refund and was granted a refund. I really appreciated it. Custom service was great but the room were a No No No....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>First of all they are pet friendly which means there will be fleas, ticks, and other bugs. So the room was booked thru Expedia. The price was reasonable $53.65 but not worth it. The room was small. It had a kitchenette. No dishes or kitchen appliances or silverware. The restroom had about 6 nats flying in the shower. Totally disgusting!! Then in the room there was nats and about 4 mosquitos flying around. I immediately called the office. The young lady behind was very helpful and nice about the situation. She quickly switched rooms. The next room was examined for bugs .... There were bed bugs in the bed under the pillow. I immediately called the office again. The young lady came back to the room saw the very small bug. I asked for a refund and was granted a refund. I really appreciated it. Custom service was great but the room were a No No No....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389513682-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389513682</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Worst motel we've been to</t>
+  </si>
+  <si>
+    <t>Very small room. Dirty carpet. I stayed there with my wife. Two guys made bad comments and bad gestures toward us. Told the motel authority about this. They said they won't do anything. Will not recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Houston - Northwest, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Very small room. Dirty carpet. I stayed there with my wife. Two guys made bad comments and bad gestures toward us. Told the motel authority about this. They said they won't do anything. Will not recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389496170-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389496170</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE !!!!!!!!</t>
+  </si>
+  <si>
+    <t>very rude woman with braces at the front desk , if you ask her for anything she makes you pay more for towels and to exchange rooms , gets loud rolls her eyes i will have her name next time i post on here, they never have clean towels if you go and ask for some they will tell you in a few hours they will call they never do. blood on the walk way outside never cleaned it up!! other then that all the staff is so sweet. just mexican young lady with braces. i think she is the manager or something, but i KNOW they need a new oneMoreShow less</t>
+  </si>
+  <si>
+    <t>very rude woman with braces at the front desk , if you ask her for anything she makes you pay more for towels and to exchange rooms , gets loud rolls her eyes i will have her name next time i post on here, they never have clean towels if you go and ask for some they will tell you in a few hours they will call they never do. blood on the walk way outside never cleaned it up!! other then that all the staff is so sweet. just mexican young lady with braces. i think she is the manager or something, but i KNOW they need a new oneMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +775,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +807,791 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_160.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_160.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,10 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r568541281-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r597446163-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>56003</t>
@@ -159,6 +159,42 @@
     <t>107994</t>
   </si>
   <si>
+    <t>597446163</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Kenny at the front desk is really helpful, professional, and knowledgable. The room was clean and comfortable. I would recommend this place to anyone. Just what I needed. It's also conveniently located by a shopping center.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r569089062-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569089062</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>The customer service is below 1 on a scale of 1-10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While I was waiting to check in I witnessed the front desk clerk curse out a customer due to not knowing an answer to a question, the customer never gave the clerk a reason to be cursed out. I walked out and checked in at a nearby motel.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r568541281-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
     <t>568541281</t>
   </si>
   <si>
@@ -177,7 +213,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566957608-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566957608-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>566957608</t>
@@ -192,10 +228,7 @@
     <t xml:space="preserve">Good room, with a fair price. The only problem i had was office closes at 11pm. I needed more towels, but other than that i was helped with connecting my computer with the wifi log in. Kenny is very nice. I highly recommend this hotel/and staying another night.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566955244-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r566955244-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>566955244</t>
@@ -210,7 +243,46 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r549199274-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r564581294-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564581294</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Worse hotel experience I ever had</t>
+  </si>
+  <si>
+    <t>Check in was easy and the front desk guy was nice. That’s the only reason they got the 2*. First, there was a HUGE burn hole in the blanket and burn holes in the shower curtain. Our room didn’t have a remote but we were brought one which looked like it was melting. Mid after noon, the ppl beside us started causing a lot of noise. Come to find out, someone was climbing through their window. Neighbors on the other side were knocking up against the wall literally all day. Around 2am, someone started a small fire in one of the rooms and that wasn’t rectified until 3am. While we were standing outside, someone asked me to take him to a hotel down the street because he had drugs on him and didn’t want to get caught. Like.... a lot of drugs. And last but not least, about 5 minutes after getting back to the room, a couple came to our door wondering where their “escort” Peaches was. You may think this was all a joke and considering I had my newborn, I certainly wish it was. I would say you get what you pay for but that was certainly beyond ridiculous.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was easy and the front desk guy was nice. That’s the only reason they got the 2*. First, there was a HUGE burn hole in the blanket and burn holes in the shower curtain. Our room didn’t have a remote but we were brought one which looked like it was melting. Mid after noon, the ppl beside us started causing a lot of noise. Come to find out, someone was climbing through their window. Neighbors on the other side were knocking up against the wall literally all day. Around 2am, someone started a small fire in one of the rooms and that wasn’t rectified until 3am. While we were standing outside, someone asked me to take him to a hotel down the street because he had drugs on him and didn’t want to get caught. Like.... a lot of drugs. And last but not least, about 5 minutes after getting back to the room, a couple came to our door wondering where their “escort” Peaches was. You may think this was all a joke and considering I had my newborn, I certainly wish it was. I would say you get what you pay for but that was certainly beyond ridiculous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r550137777-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550137777</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked the guy at the front desk </t>
+  </si>
+  <si>
+    <t>Staff was very friendly, and Kenny was very helpful through out my stay. The service was on point. I Will definitely be staying here again in the near future. Thank you for making this stay enjoyable.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r549199274-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>549199274</t>
@@ -225,10 +297,7 @@
     <t>I booked 2 nights at this hotel because of the simple fact of having the kitchenettes...plus I got a great rate. Once I arrived,I was told I could check in @ 2. I was still waiting in my car at 5 for someone to show up to work the front desk. They NEVER came and I had to transfer my reservation to another property. 24 hrs later, Kenny, a front desk agent at this hotel called to inform me that I wasn't going to be charged. No s#$t Sherlock.</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r516854736-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r516854736-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>516854736</t>
@@ -249,7 +318,7 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r515341183-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r515341183-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>515341183</t>
@@ -261,10 +330,46 @@
     <t>⭐️⭐️⭐️⭐️⭐️</t>
   </si>
   <si>
-    <t>I enjoyed my stay at Crossland E Studios ‼️ Management nice and friendly very helpful ‼️I recommend Crossland to anyone looking for a good deal peace and quiet in a nice location ‼️I never d any problems with other tenets awesome stay ‼️‼️</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r470990226-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>I enjoyed my stay at Crossland E Studios ️ Management nice and friendly very helpful ️I recommend Crossland to anyone looking for a good deal peace and quiet in a nice location ️I never d any problems with other tenets awesome stay ️️</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r508531913-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508531913</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>2 nights</t>
+  </si>
+  <si>
+    <t>We stayed a couple nights due to our a/c out at home. I enjoyed my stay  very clean and fast and friendly service I must say I will return someday .I definitely recommend. The guy Kenny was funny and very helpful.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r492620315-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492620315</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>like living at home</t>
+  </si>
+  <si>
+    <t>i had stayed at the Crosslands northwest Houston Texas 7 out of the last 10 months. I feel like its like staying with my family. the front desk personnel from the young man and the young females are like my children. most of the residents here are longer stays because the service is by KZ and Tierra they are both excellent and the reason I keep extending my stays from month to month</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r470990226-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>470990226</t>
@@ -282,10 +387,7 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r462445882-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r462445882-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>462445882</t>
@@ -303,7 +405,7 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r460268560-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r460268560-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>460268560</t>
@@ -321,7 +423,43 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r437953381-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r446509633-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446509633</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent management</t>
+  </si>
+  <si>
+    <t>I have visited on several occasions, almost daily and have seen the challenges that hotel staff must confront. Having been in management for many years myself, i understand how frustrating it  can be. However, it seems that the efficient and effective leadership of hotel manager, Mr. Roberto Varela in the daily trials that a hotel manager must face. He makes it look easy, and as a result, the hotel experience at his location was a smooth sailing, restful delight.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r446191560-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446191560</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive and fills the bill.</t>
+  </si>
+  <si>
+    <t>We had never stayed at an extended stay facility before. It was a new experience to say the least. You get what you pay for, and don't get what you don't pay for. First of all I couldn't get the wifi to work properly for 3 days, my bad. I called the office and they told me I had already paid for it and gave me the password, it worked flawlessly for the rest of our stay on my laptop, iPad and phone. Next we ran out of toilet paper and the cleaning staff said we had to buy our own, but gave me a short roll, then we went and bought our own. Then we read that they clean the rooms once a week. That means vacuuming, changing the bedding and that's all. There is a laundry on site, large, several machines and convenient, so we washed our towels with our laundry. We met several other guests, all were friendly they told us they live here as it was much cheaper than renting anything else in the area. We also observed several service company vehicles here, and assumed they were here on a weekly basis. After all that it made sense why it was so competitively priced. Buying toilet paper and washing towels with our laundry was far less expensive than other places in the area. It was very clean and had a very safe feel even when I...We had never stayed at an extended stay facility before. It was a new experience to say the least. You get what you pay for, and don't get what you don't pay for. First of all I couldn't get the wifi to work properly for 3 days, my bad. I called the office and they told me I had already paid for it and gave me the password, it worked flawlessly for the rest of our stay on my laptop, iPad and phone. Next we ran out of toilet paper and the cleaning staff said we had to buy our own, but gave me a short roll, then we went and bought our own. Then we read that they clean the rooms once a week. That means vacuuming, changing the bedding and that's all. There is a laundry on site, large, several machines and convenient, so we washed our towels with our laundry. We met several other guests, all were friendly they told us they live here as it was much cheaper than renting anything else in the area. We also observed several service company vehicles here, and assumed they were here on a weekly basis. After all that it made sense why it was so competitively priced. Buying toilet paper and washing towels with our laundry was far less expensive than other places in the area. It was very clean and had a very safe feel even when I went out to get things from my car at 11:30 at nite. We asked about printing our boarding passes and they said if we email them to the office during office hours, they can print them for us. Yes we would recommend staying at this facility, just bear in mind it is 1/2 or 1/3 because your not getting fresh towels and room cleaning every day. You do get a stove, sink and fridge, no pans, silverware etc. nice TV, free parking and convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had never stayed at an extended stay facility before. It was a new experience to say the least. You get what you pay for, and don't get what you don't pay for. First of all I couldn't get the wifi to work properly for 3 days, my bad. I called the office and they told me I had already paid for it and gave me the password, it worked flawlessly for the rest of our stay on my laptop, iPad and phone. Next we ran out of toilet paper and the cleaning staff said we had to buy our own, but gave me a short roll, then we went and bought our own. Then we read that they clean the rooms once a week. That means vacuuming, changing the bedding and that's all. There is a laundry on site, large, several machines and convenient, so we washed our towels with our laundry. We met several other guests, all were friendly they told us they live here as it was much cheaper than renting anything else in the area. We also observed several service company vehicles here, and assumed they were here on a weekly basis. After all that it made sense why it was so competitively priced. Buying toilet paper and washing towels with our laundry was far less expensive than other places in the area. It was very clean and had a very safe feel even when I...We had never stayed at an extended stay facility before. It was a new experience to say the least. You get what you pay for, and don't get what you don't pay for. First of all I couldn't get the wifi to work properly for 3 days, my bad. I called the office and they told me I had already paid for it and gave me the password, it worked flawlessly for the rest of our stay on my laptop, iPad and phone. Next we ran out of toilet paper and the cleaning staff said we had to buy our own, but gave me a short roll, then we went and bought our own. Then we read that they clean the rooms once a week. That means vacuuming, changing the bedding and that's all. There is a laundry on site, large, several machines and convenient, so we washed our towels with our laundry. We met several other guests, all were friendly they told us they live here as it was much cheaper than renting anything else in the area. We also observed several service company vehicles here, and assumed they were here on a weekly basis. After all that it made sense why it was so competitively priced. Buying toilet paper and washing towels with our laundry was far less expensive than other places in the area. It was very clean and had a very safe feel even when I went out to get things from my car at 11:30 at nite. We asked about printing our boarding passes and they said if we email them to the office during office hours, they can print them for us. Yes we would recommend staying at this facility, just bear in mind it is 1/2 or 1/3 because your not getting fresh towels and room cleaning every day. You do get a stove, sink and fridge, no pans, silverware etc. nice TV, free parking and convenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r437953381-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>437953381</t>
@@ -342,7 +480,7 @@
     <t>First of all they are pet friendly which means there will be fleas, ticks, and other bugs. So the room was booked thru Expedia. The price was reasonable $53.65 but not worth it. The room was small. It had a kitchenette. No dishes or kitchen appliances or silverware. The restroom had about 6 nats flying in the shower. Totally disgusting!! Then in the room there was nats and about 4 mosquitos flying around. I immediately called the office. The young lady behind was very helpful and nice about the situation. She quickly switched rooms. The next room was examined for bugs .... There were bed bugs in the bed under the pillow. I immediately called the office again. The young lady came back to the room saw the very small bug. I asked for a refund and was granted a refund. I really appreciated it. Custom service was great but the room were a No No No....More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389513682-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389513682-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>389513682</t>
@@ -360,7 +498,7 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Houston - Northwest, responded to this reviewResponded July 19, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Studios Houston - Northwest, responded to this reviewResponded July 19, 2016</t>
   </si>
   <si>
     <t>Responded July 19, 2016</t>
@@ -369,7 +507,7 @@
     <t>Very small room. Dirty carpet. I stayed there with my wife. Two guys made bad comments and bad gestures toward us. Told the motel authority about this. They said they won't do anything. Will not recommend this place to anyone.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389496170-Crossland_Economy_Studios_Houston_Northwest-Houston_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r389496170-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>389496170</t>
@@ -382,6 +520,51 @@
   </si>
   <si>
     <t>very rude woman with braces at the front desk , if you ask her for anything she makes you pay more for towels and to exchange rooms , gets loud rolls her eyes i will have her name next time i post on here, they never have clean towels if you go and ask for some they will tell you in a few hours they will call they never do. blood on the walk way outside never cleaned it up!! other then that all the staff is so sweet. just mexican young lady with braces. i think she is the manager or something, but i KNOW they need a new oneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r380577734-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380577734</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Smelly Rooms</t>
+  </si>
+  <si>
+    <t>The odor in the non-smoking rooms seem worse than that of average smoking rooms elsewhere. The walkways are so untidy and littered with all sorts. I think all that matters to the managers is the money</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107994-r360244859-HomeTowne_Studios_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360244859</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stay here </t>
+  </si>
+  <si>
+    <t>Don't stay here non smoking rooms smell of either cigarettes or the weed from the room below, carpet is covered in stains, smoke alarm has been ripped out the ceiling leaving a hole. Uncomfortable old mattress. Don't even have a bedside table. Cheap but not cheerful. Book at your own risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Studios Houston - Northwest, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Don't stay here non smoking rooms smell of either cigarettes or the weed from the room below, carpet is covered in stains, smoke alarm has been ripped out the ceiling leaving a hole. Uncomfortable old mattress. Don't even have a bedside table. Cheap but not cheerful. Book at your own risk.More</t>
   </si>
 </sst>
 </file>
@@ -973,14 +1156,10 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1009,7 +1188,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1018,10 +1197,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
         <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>61</v>
@@ -1033,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1066,7 +1245,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1075,22 +1254,22 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
@@ -1107,7 +1286,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1135,40 +1314,36 @@
         <v>71</v>
       </c>
       <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1184,7 +1359,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1193,25 +1368,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
         <v>78</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1225,7 +1400,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1241,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1250,45 +1425,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>87</v>
       </c>
-      <c r="O8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1304,7 +1473,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1313,25 +1482,25 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>91</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>92</v>
       </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1345,7 +1514,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -1361,7 +1530,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1370,25 +1539,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1398,7 +1567,7 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1406,7 +1575,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -1422,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1431,22 +1600,22 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>103</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>104</v>
       </c>
-      <c r="L11" t="s">
-        <v>105</v>
-      </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -1463,7 +1632,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1479,7 +1648,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1488,25 +1657,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
         <v>109</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>110</v>
       </c>
-      <c r="K12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>113</v>
-      </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1517,14 +1686,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" t="s">
-        <v>115</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1705,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1549,28 +1714,28 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
@@ -1579,19 +1744,617 @@
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>114</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>115</v>
       </c>
-      <c r="Y13" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
         <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36539</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>180</v>
+      </c>
+      <c r="X23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
